--- a/warehouse_manager/Database/Orders.xlsx
+++ b/warehouse_manager/Database/Orders.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,1051 +469,4201 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>600004</v>
+        <v>600051</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>45066.53743153237</v>
+        <v>45066.57025033565</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>45067.53743153237</v>
+        <v>45067.57025033565</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[('Laptop Backpack', 1), ('AA Batteries', 1), ('Wireless Mouse', 1)]</t>
+          <t>[('Eyeshadow Palette', 1)]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
+          <t>16 Rue du Faubourg Saint-Honoré, Parigi, Île-de-France, 75008, Francia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>600020</v>
+        <v>600067</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>45066.53743665156</v>
+        <v>45066.57025491898</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45067.6207699849</v>
+        <v>45067.57025491898</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[('Mixing Bowl Set', 1)]</t>
+          <t>[('Mascara', 1)]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>600001</v>
+        <v>600083</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>45066.53743059684</v>
+        <v>45066.57025815972</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>45067.66243059684</v>
+        <v>45067.57025815972</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[('AA Batteries', 2), ('Wireless Mouse', 1)]</t>
+          <t>[('Mascara', 1)]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
+          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>600002</v>
+        <v>600098</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>45066.53743082433</v>
+        <v>45066.5702633912</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45067.704097491</v>
+        <v>45067.5702633912</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[('Screw Assortment Kit', 1), ('LED Bulb', 1)]</t>
+          <t>[('Basketball', 1), ('Resistance Bands', 2)]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>600007</v>
+        <v>600160</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>45066.53743256926</v>
+        <v>45066.57063223929</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45067.70409923593</v>
+        <v>45067.57063223929</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[('Screw Assortment Kit', 1), ('Toolbox', 1), ('Screwdriver Set', 1)]</t>
+          <t>[('Aromatherapy Diffuser', 1), ('AA Batteries', 1), ('Coffee Mug', 1)]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>600044</v>
+        <v>600174</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>45066.53744258293</v>
+        <v>45066.57063534208</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45067.70410924959</v>
+        <v>45067.57063534208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[('Bath Towels', 1), ('Pillow', 1), ('Lipstick', 1), ('Aromatherapy Diffuser', 1)]</t>
+          <t>[('Pillow', 1), ('Aromatherapy Diffuser', 1), ('Yoga Mat', 1), ('Essential Oil Set', 1)]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>600006</v>
+        <v>600182</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>45066.53743216825</v>
+        <v>45066.57063703459</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>45067.74576550158</v>
+        <v>45067.57063703459</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[('Wireless Mouse', 1), ('AAA Batteries', 1), ('Wireless Headphones', 1), ('Bluetooth Speaker', 1)]</t>
+          <t>[('Basketball', 1), ('Bluetooth Speaker', 1)]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12 Rue de la République, Parigi, Île-de-France, 75001, Francia</t>
+          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>600025</v>
+        <v>600004</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>45066.53743749152</v>
+        <v>45066.57002143518</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45067.74577082485</v>
+        <v>45067.61168810185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[('USB Flash Drive', 2)]</t>
+          <t>[('Lipstick', 1), ('Essential Oil Set', 1), ('Meditation Cushion', 1), ('Wall Clock', 1), ('Eyeshadow Palette', 2), ('Measuring Tape', 1)]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
+          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>600041</v>
+        <v>600015</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>45066.53744162515</v>
+        <v>45066.57002368056</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>45067.74577495849</v>
+        <v>45067.61169034722</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[('Essential Oil Set', 1)]</t>
+          <t>[('Wireless Headphones', 1), ('Bluetooth Speaker', 1)]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
+          <t>25 Avenue des Champs-Élysées, Parigi, Île-de-France, 75008, Francia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>600009</v>
+        <v>600022</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>45066.53743332814</v>
+        <v>45066.57002503472</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45067.78743332814</v>
+        <v>45067.61169170139</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[('Hammer', 1)]</t>
+          <t>[('Wall Clock', 1), ('Meditation Cushion', 1)]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+          <t>Viale XX Settembre 8, Torino, TO, 10121, Italia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>600030</v>
+        <v>600023</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>45066.53743884179</v>
+        <v>45066.57002528935</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45067.78743884179</v>
+        <v>45067.61169195602</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[('Coffee Mug', 1)]</t>
+          <t>[('LED Bulb', 2)]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bahnhofplatz 15, Ginevra, Ginevra, 1201, Svizzera</t>
+          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>600013</v>
+        <v>600066</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>45066.53743450359</v>
+        <v>45066.57025481482</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45067.82910117025</v>
+        <v>45067.61192148148</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[('Screw Assortment Kit', 1)]</t>
+          <t>[('Lipstick', 1)]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
+          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>600034</v>
+        <v>600084</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>45066.53744002838</v>
+        <v>45066.5702584375</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>45067.82910669505</v>
+        <v>45067.61192510417</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[('Lipstick', 2)]</t>
+          <t>[('Coffee Maker', 1), ('Facial Cleanser', 1)]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
+          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>600045</v>
+        <v>600100</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>45066.53744294179</v>
+        <v>45066.57026375</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>45067.82910960846</v>
+        <v>45067.61193041666</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[('Aromatherapy Diffuser', 2), ('Wall Clock', 1)]</t>
+          <t>[('Wireless Headphones', 1)]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
+          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>600003</v>
+        <v>600139</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>45066.53743118636</v>
+        <v>45066.57050075231</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>45067.87076451968</v>
+        <v>45067.61216741898</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[('Aromatherapy Diffuser', 2), ('Coffee Mug', 1)]</t>
+          <t>[('Steam Iron', 1), ('Essential Oil Set', 1)]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bahnhofplatz 15, Ginevra, Ginevra, 1201, Svizzera</t>
+          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>600012</v>
+        <v>600168</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>45066.53743439446</v>
+        <v>45066.57063390524</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>45067.87076772779</v>
+        <v>45067.61230057191</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[('Screw Assortment Kit', 1)]</t>
+          <t>[('LED Bulb', 1)]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
+          <t>Paseo de Gracia 30, Barcellona, Catalogna, 08007, Spagna</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>600042</v>
+        <v>600169</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>45066.53744174269</v>
+        <v>45066.57063400986</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45067.87077507601</v>
+        <v>45067.61230067653</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[('Resistance Bands', 1)]</t>
+          <t>[('LED Bulb', 1)]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Largo do Pelourinho 8, Faro, Faro, 8000-118, Portogallo</t>
+          <t>Hauptstraße 10, Berlino, Berlino, 10115, Germania</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>600043</v>
+        <v>600188</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>45066.53744210304</v>
+        <v>45066.57063890938</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>45067.87077543638</v>
+        <v>45067.61230557605</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[('Soccer Ball', 3)]</t>
+          <t>[('Resistance Bands', 1)]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
+          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>600033</v>
+        <v>600005</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>45066.53743981945</v>
+        <v>45066.57002167824</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>45067.95410648613</v>
+        <v>45067.65335501157</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[('AA Batteries', 1)]</t>
+          <t>[('AA Batteries', 2)]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>600015</v>
+        <v>600028</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>45066.53743486197</v>
+        <v>45066.57002725694</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45067.9957681953</v>
+        <v>45067.65336059028</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[('LED Bulb', 1)]</t>
+          <t>[('Bluetooth Speaker', 1)]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
+          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>600039</v>
+        <v>600034</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>45066.53744090965</v>
+        <v>45066.57002887732</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>45067.99577424298</v>
+        <v>45067.65336221065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[('Wall Clock', 1)]</t>
+          <t>[('AAA Batteries', 1), ('AA Batteries', 1), ('Aromatherapy Diffuser', 1)]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
+          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>600018</v>
+        <v>600125</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>45066.53743644038</v>
+        <v>45066.570496875</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>45068.03743644038</v>
+        <v>45067.65383020834</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[('Yoga Mat', 1), ('Bluetooth Speaker', 1)]</t>
+          <t>[('Cutting Board', 1)]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
+          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>600026</v>
+        <v>600147</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>45066.53743765099</v>
+        <v>45066.57050303241</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>45068.03743765099</v>
+        <v>45067.65383636574</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[('Screwdriver Set', 1)]</t>
+          <t>[('USB Flash Drive', 1), ('AAA Batteries', 2), ('Wall Clock', 1)]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>600016</v>
+        <v>600041</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>45066.53743533376</v>
+        <v>45066.57003037037</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>45068.07910200043</v>
+        <v>45067.69503037037</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[('AAA Batteries', 1), ('Wall Clock', 1), ('LED Bulb', 1), ('Lipstick', 1)]</t>
+          <t>[('AA Batteries', 2), ('Wireless Mouse', 1)]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>600036</v>
+        <v>600047</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>45066.53744029748</v>
+        <v>45066.57003302083</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>45068.07910696416</v>
+        <v>45067.69503302083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[('Lipstick', 1)]</t>
+          <t>[('LED Bulb', 1), ('Measuring Tape', 1)]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>600031</v>
+        <v>600128</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>45066.53743931785</v>
+        <v>45066.57049752315</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>45068.12077265118</v>
+        <v>45067.69549752315</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[('Essential Oil Set', 1), ('Coffee Mug', 1), ('Aromatherapy Diffuser', 1), ('AAA Batteries', 1)]</t>
+          <t>[('Mascara', 2)]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>600005</v>
+        <v>600145</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>45066.53743168451</v>
+        <v>45066.5705024537</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>45068.16243168451</v>
+        <v>45067.6955024537</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[('Screw Assortment Kit', 1)]</t>
+          <t>[('AA Batteries', 1), ('AAA Batteries', 1)]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
+          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>600014</v>
+        <v>600159</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>45066.53743476214</v>
+        <v>45066.57063185878</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>45068.16243476214</v>
+        <v>45067.69563185878</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[('Floor Lamp', 1), ('Blender', 1)]</t>
+          <t>[('Screw Assortment Kit', 1), ('Measuring Tape', 1), ('Paint Brush Set', 1)]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
+          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>600017</v>
+        <v>600035</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>45066.53743620237</v>
+        <v>45066.57002915509</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>45068.16243620237</v>
+        <v>45067.73669582176</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[('Mascara', 1), ('Moisturizing Cream', 2), ('Facial Cleanser', 1), ('Pillow', 1), ('Eyeshadow Palette', 2)]</t>
+          <t>[('HDMI Cable', 1), ('AA Batteries', 1)]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
+          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>600040</v>
+        <v>600056</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>45066.53744149898</v>
+        <v>45066.57025144676</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>45068.16244149898</v>
+        <v>45067.73691811343</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[('Coffee Mug', 1), ('Aromatherapy Diffuser', 1), ('Coffee Maker', 1), ('Vacuum Cleaner', 1), ('Lipstick', 1)]</t>
+          <t>[('Mixing Bowl Set', 2)]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
+          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>600049</v>
+        <v>600080</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>45066.53744355764</v>
+        <v>45066.57025782407</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>45068.16244355764</v>
+        <v>45067.73692449074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[('Food Storage Containers', 1)]</t>
+          <t>[('Level', 1), ('LED Bulb', 2), ('Paint Brush Set', 1), ('Vacuum Cleaner', 1), ('Hammer', 1)]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
+          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>600011</v>
+        <v>600106</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>45066.53743425161</v>
+        <v>45066.57049255787</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>45068.20410091827</v>
+        <v>45067.73715922454</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[('Wireless Headphones', 1), ('Basketball', 1), ('AA Batteries', 3), ('Soccer Ball', 1)]</t>
+          <t>[('Lipstick', 1), ('Facial Cleanser', 1)]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2 Quai de la Megisserie, Tolosa, Occitania, 31000, Francia</t>
+          <t>Königsallee 18, Dortmund, Renania Settentrionale-Vestfalia, 44137, Germania</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>600027</v>
+        <v>600176</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>45066.53743801421</v>
+        <v>45066.57063556019</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>45068.20410468088</v>
+        <v>45067.73730222687</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[('AAA Batteries', 1), ('USB Flash Drive', 1), ('HDMI Cable', 1)]</t>
+          <t>[('Screw Assortment Kit', 1)]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Largo Vittorio Veneto 3, Napoli, NA, 80132, Italia</t>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>600021</v>
+        <v>600189</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>45066.53743675113</v>
+        <v>45066.57063923866</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>45068.24577008447</v>
+        <v>45067.73730590532</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[('Vacuum Cleaner', 1)]</t>
+          <t>[('Aromatherapy Diffuser', 1), ('LED Bulb', 1), ('Lipstick', 1)]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>16 Rue du Faubourg Saint-Honoré, Parigi, Île-de-France, 75008, Francia</t>
+          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>600023</v>
+        <v>600192</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>45066.53743714922</v>
+        <v>45066.57064008896</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>45068.28743714922</v>
+        <v>45067.73730675563</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[('Eyeshadow Palette', 1)]</t>
+          <t>[('Essential Oil Set', 1), ('Aromatherapy Diffuser', 2)]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
+          <t>16 Rue du Faubourg Saint-Honoré, Parigi, Île-de-France, 75008, Francia</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>600029</v>
+        <v>600194</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>45066.53743873534</v>
+        <v>45066.57064058559</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>45068.28743873534</v>
+        <v>45067.73730725226</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[('Measuring Tape', 1), ('Toolbox', 1), ('Paint Roller Kit', 1), ('Screwdriver Set', 1), ('Wall Clock', 1)]</t>
+          <t>[('LED Bulb', 1)]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+          <t>Bahnhofplatz 15, Ginevra, Ginevra, 1201, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>600037</v>
+        <v>600198</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>45066.53744054286</v>
+        <v>45066.57064176331</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>45068.28744054286</v>
+        <v>45067.73730842998</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[('LED Bulb', 1), ('Screwdriver Set', 1)]</t>
+          <t>[('Bed Sheets', 1)]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
+          <t>Alte Landstrasse 6, Winterthur, Zurigo, 8400, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>600047</v>
+        <v>600200</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>45066.5374433051</v>
+        <v>45066.57064201507</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>45068.2874433051</v>
+        <v>45067.73730868174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[('Utility Knife', 1)]</t>
+          <t>[('AA Batteries', 1)]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>600046</v>
+        <v>600013</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>45066.53744318736</v>
+        <v>45066.57002334491</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>45068.32910985403</v>
+        <v>45067.77835667824</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[('Utility Knife', 1), ('Measuring Tape', 1)]</t>
+          <t>[('AAA Batteries', 1)]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>600050</v>
+        <v>600044</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>45066.53744382795</v>
+        <v>45066.57003109954</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>45068.32911049462</v>
+        <v>45067.77836443287</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[('Toolbox', 1), ('Screw Assortment Kit', 1)]</t>
+          <t>[('Coffee Mug', 1), ('Mascara', 2)]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>600010</v>
+        <v>600057</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>45066.53743354008</v>
+        <v>45066.57025166666</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>45068.37076687341</v>
+        <v>45067.778585</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[('Cookware Set', 1), ('Coffee Maker', 1)]</t>
+          <t>[('Coffee Mug', 2)]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
+          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>600032</v>
+        <v>600062</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>45066.53743966712</v>
+        <v>45066.57025309028</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>45068.37077300045</v>
+        <v>45067.77858642361</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[('Level', 1), ('Measuring Tape', 2)]</t>
+          <t>[('Measuring Tape', 1), ('Hammer', 1), ('Screwdriver Set', 1), ('LED Bulb', 1)]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12 Rue de la République, Parigi, Île-de-France, 75001, Francia</t>
+          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>600008</v>
+        <v>600074</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>45066.53743314051</v>
+        <v>45066.57025614583</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>45068.41243314051</v>
+        <v>45067.77858947917</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[('Paint Roller Kit', 1), ('Measuring Tape', 2), ('Toolbox', 1), ('Wall Clock', 1)]</t>
+          <t>[('Facial Cleanser', 1)]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
+          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>600019</v>
+        <v>600089</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>45066.53743656183</v>
+        <v>45066.57026071759</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>45068.49576989516</v>
+        <v>45067.77859405093</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[('Aromatherapy Diffuser', 1)]</t>
+          <t>[('Screw Assortment Kit', 1)]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
+          <t>16 Rue du Faubourg Saint-Honoré, Parigi, Île-de-France, 75008, Francia</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>600022</v>
+        <v>600115</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>45066.53743703797</v>
+        <v>45066.57049473379</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>45068.49577037131</v>
+        <v>45067.77882806713</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[('LED Bulb', 2)]</t>
+          <t>[('Power Drill', 1), ('Measuring Tape', 1)]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>600024</v>
+        <v>600142</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>45066.53743728525</v>
+        <v>45066.57050150463</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>45068.49577061859</v>
+        <v>45067.77883483796</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[('Facial Cleanser', 1)]</t>
+          <t>[('Soccer Ball', 1)]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Calle Gran Vía 10, Madrid, Madrid, 28013, Spagna</t>
+          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>600028</v>
+        <v>600006</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>45066.53743811896</v>
+        <v>45066.57002188657</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>45068.49577145229</v>
+        <v>45067.82002188657</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[('Measuring Tape', 1)]</t>
+          <t>[('Coffee Mug', 2)]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
+          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>600035</v>
+        <v>600010</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>45066.53744018205</v>
+        <v>45066.57002275463</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>45068.53744018205</v>
+        <v>45067.82002275463</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[('Yoga Block', 1)]</t>
+          <t>[('Coffee Mug', 1), ('Mascara', 1)]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
+          <t>Alte Landstrasse 6, Winterthur, Zurigo, 8400, Svizzera</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>600038</v>
+        <v>600027</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>45066.53744076467</v>
+        <v>45066.57002711805</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>45068.53744076467</v>
+        <v>45067.82002711805</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[('Aromatherapy Diffuser', 2)]</t>
+          <t>[('LED Bulb', 1), ('Toolbox', 2), ('Utility Knife', 3)]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
+        <v>600052</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>45066.57025045139</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>45067.82025045139</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 1)]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>600065</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>45066.57025471065</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>45067.82025471065</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[('Wireless Mouse', 1), ('AA Batteries', 1), ('Bluetooth Speaker', 1), ('LED Bulb', 1), ('USB Flash Drive', 1), ('Laptop Backpack', 2)]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>600078</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>45066.57025672454</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>45067.82025672454</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 1)]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Musterweg 20, Basilea, Basilea Città, 4001, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>600082</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>45066.57025805556</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>45067.82025805556</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[('Blender', 1)]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Musterstraße 15, Monaco di Baviera, Baviera, 80331, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>600097</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>45066.57026299769</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>45067.82026299769</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>600111</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>45066.57049366898</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>45067.82049366898</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 1)]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>600140</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>45066.57050100694</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>45067.82050100694</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 2)]</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>600154</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>45066.57063086856</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>45067.82063086856</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 1)]</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>600172</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>45066.5706347454</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>45067.8206347454</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 1), ('Moisturizing Cream', 1)]</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>600175</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>45066.57063543666</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>45067.82063544826</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 1)]</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>600183</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>45066.57063754476</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>45067.82063754476</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 3), ('Toolbox', 1)]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Marktplatz 6, Hannover, Bassa Sassonia, 30159, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>600025</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>45066.57002583333</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>45067.8616925</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1), ('Wireless Headphones', 1), ('Basketball', 1)]</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>600036</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>45066.57002940972</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>45067.86169607639</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[('Soccer Ball', 1), ('Basketball', 1)]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>600050</v>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>45066.57003362269</v>
+      </c>
+      <c r="C64" s="5" t="n">
+        <v>45067.86170028935</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[('AAA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>600072</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>45066.57025578704</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>45067.8619224537</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[('HDMI Cable', 1)]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>600107</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>45066.57049282407</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>45067.86215949074</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 1), ('Meditation Cushion', 1)]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>600157</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>45066.5706313785</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>45067.86229804518</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 1)]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Largo do Pelourinho 8, Faro, Faro, 8000-118, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>600165</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>45066.57063354215</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>45067.86230020882</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 1), ('USB Flash Drive', 1), ('AA Batteries', 1), ('AAA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>600001</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>45066.57002030093</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>45067.90335363426</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[('Aromatherapy Diffuser', 1), ('Eyeshadow Palette', 1)]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Via XX Settembre 15, Torino, TO, 10121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>600016</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>45066.5700240625</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <v>45067.90335739584</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 1), ('Bluetooth Speaker', 1), ('AAA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Via XX Settembre 15, Torino, TO, 10121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>600024</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>45066.57002540509</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>45067.90335873843</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 1)]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>600043</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>45066.57003072917</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>45067.9033640625</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[('Aromatherapy Diffuser', 1), ('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
         <v>600048</v>
       </c>
-      <c r="B51" s="5" t="n">
-        <v>45066.53744344993</v>
-      </c>
-      <c r="C51" s="5" t="n">
-        <v>45068.53744344993</v>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="B73" s="5" t="n">
+        <v>45066.57003337963</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>45067.90336671296</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 1), ('Basketball', 1), ('Facial Cleanser', 1)]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>18 Rue du Temple, Lione, Alvernia-Rodano-Alpi, 69002, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>600077</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>45066.57025662037</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>45067.9035899537</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 1)]</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Paseo de Gracia 30, Barcellona, Catalogna, 08007, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>600112</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>45066.57049392361</v>
+      </c>
+      <c r="C75" s="5" t="n">
+        <v>45067.90382725695</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 1), ('Facial Cleanser', 1)]</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>600130</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>45066.57049825232</v>
+      </c>
+      <c r="C76" s="5" t="n">
+        <v>45067.90383158565</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[('Bed Sheets', 1), ('Blender', 1), ('Pillow', 1), ('Mascara', 1)]</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>600137</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>45066.57050027778</v>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>45067.90383361111</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 3), ('AAA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>600002</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>45066.57002041666</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <v>45067.94502041666</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 1)]</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>600011</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>45066.5700228588</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>45067.9450228588</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[('Measuring Tape', 1)]</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>600049</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>45066.5700334838</v>
+      </c>
+      <c r="C80" s="5" t="n">
+        <v>45067.9450334838</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>[('Bluetooth Speaker', 1)]</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>600071</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>45066.57025564815</v>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>45067.94525564815</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[('Yoga Mat', 1)]</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2 Quai de la Megisserie, Tolosa, Occitania, 31000, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>600073</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>45066.57025603009</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>45067.94525603009</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 2)]</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>16 Rue du Faubourg Saint-Honoré, Parigi, Île-de-France, 75008, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>600178</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>45066.57063643754</v>
+      </c>
+      <c r="C83" s="5" t="n">
+        <v>45067.94563643754</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 2), ('LED Bulb', 1), ('Mascara', 1)]</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>600196</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>45066.57064129857</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>45067.94564129857</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>[('Level', 1), ('Utility Knife', 1), ('Measuring Tape', 1), ('Screwdriver Set', 1)]</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>600003</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>45066.57002055555</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>45067.98668722222</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>[('Bath Towels', 1)]</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>600009</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>45066.5700225</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>45067.98668916667</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1), ('AAA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>600029</v>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>45066.57002746528</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>45067.98669413194</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>[('Coffee Maker', 1), ('Facial Cleanser', 1)]</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Viale XX Settembre 8, Torino, TO, 10121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>600055</v>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>45066.57025118056</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <v>45067.98691784722</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>[('AAA Batteries', 1), ('Wireless Headphones', 1), ('LED Bulb', 1)]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Via Garibaldi 20, Bologna, BO, 40122, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>600070</v>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>45066.57025554398</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>45067.98692221065</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 2)]</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>600085</v>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>45066.57025880787</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <v>45067.98692547454</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>[('Bluetooth Speaker', 1), ('Soccer Ball', 1)]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Calle Alcalá 25, Madrid, Madrid, 28014, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>600093</v>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>45066.5702612963</v>
+      </c>
+      <c r="C91" s="5" t="n">
+        <v>45067.98692796296</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>[('Measuring Tape', 1)]</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>600127</v>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>45066.5704972338</v>
+      </c>
+      <c r="C92" s="5" t="n">
+        <v>45067.98716390046</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1), ('Wireless Mouse', 1)]</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>600171</v>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>45066.57063448816</v>
+      </c>
+      <c r="C93" s="5" t="n">
+        <v>45067.98730115483</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>[('Laptop Backpack', 2)]</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Musterstraße 15, Monaco di Baviera, Baviera, 80331, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>600180</v>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>45066.57063664046</v>
+      </c>
+      <c r="C94" s="5" t="n">
+        <v>45067.98730330713</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Friedrichstraße 25, Lipsia, Sassonia, 04109, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>600069</v>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>45066.5702553125</v>
+      </c>
+      <c r="C95" s="5" t="n">
+        <v>45068.02858864584</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 1)]</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>18 Rue du Temple, Lione, Alvernia-Rodano-Alpi, 69002, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>600086</v>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>45066.57025932871</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>45068.02859266203</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>[('Toolbox', 1), ('Hammer', 1), ('Wall Clock', 1), ('Aromatherapy Diffuser', 1)]</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>600088</v>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>45066.5702605787</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>45068.02859391204</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>[('Wall Clock', 1)]</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2 Quai de la Megisserie, Tolosa, Occitania, 31000, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>600091</v>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>45066.57026104167</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <v>45068.028594375</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>600101</v>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>45066.5704912037</v>
+      </c>
+      <c r="C99" s="5" t="n">
+        <v>45068.02882453704</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>[('Power Drill', 1), ('LED Bulb', 1)]</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Via Garibaldi 20, Bologna, BO, 40122, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>600114</v>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>45066.57049452546</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>45068.0288278588</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 1)]</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>600123</v>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>45066.57049643518</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>45068.02882976852</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>[('Utility Knife', 1)]</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>600164</v>
+      </c>
+      <c r="B102" s="5" t="n">
+        <v>45066.5706330394</v>
+      </c>
+      <c r="C102" s="5" t="n">
+        <v>45068.02896637273</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>[('Measuring Tape', 1), ('Power Drill', 1)]</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Alte Landstrasse 6, Winterthur, Zurigo, 8400, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>600007</v>
+      </c>
+      <c r="B103" s="5" t="n">
+        <v>45066.57002203703</v>
+      </c>
+      <c r="C103" s="5" t="n">
+        <v>45068.07002203703</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>[('Eyeshadow Palette', 1)]</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>600017</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>45066.57002420139</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>45068.07002420139</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>[('Screwdriver Set', 1)]</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>600019</v>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>45066.57002457176</v>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>45068.07002457176</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 1), ('Lipstick', 1)]</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>600040</v>
+      </c>
+      <c r="B106" s="5" t="n">
+        <v>45066.57003</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>45068.07003</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>[('Yoga Mat', 1)]</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>600081</v>
+      </c>
+      <c r="B107" s="5" t="n">
+        <v>45066.57025793981</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>45068.07025793981</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>[('Soccer Ball', 1)]</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>600119</v>
+      </c>
+      <c r="B108" s="5" t="n">
+        <v>45066.57049597222</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>45068.07049597222</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1), ('USB Flash Drive', 1)]</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Piazza del Duomo 5, Firenze, FI, 50122, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>600133</v>
+      </c>
+      <c r="B109" s="5" t="n">
+        <v>45066.57049908565</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>45068.07049908565</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 2), ('Lipstick', 1), ('Eyeshadow Palette', 1), ('Facial Cleanser', 1)]</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>600135</v>
+      </c>
+      <c r="B110" s="5" t="n">
+        <v>45066.57049931713</v>
+      </c>
+      <c r="C110" s="5" t="n">
+        <v>45068.07049931713</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 1)]</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Alte Landstrasse 6, Winterthur, Zurigo, 8400, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>600136</v>
+      </c>
+      <c r="B111" s="5" t="n">
+        <v>45066.57049978009</v>
+      </c>
+      <c r="C111" s="5" t="n">
+        <v>45068.07049978009</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>[('AAA Batteries', 1), ('AA Batteries', 1), ('Wall Clock', 1), ('Yoga Mat', 1)]</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>600156</v>
+      </c>
+      <c r="B112" s="5" t="n">
+        <v>45066.57063123596</v>
+      </c>
+      <c r="C112" s="5" t="n">
+        <v>45068.07063123596</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[('HDMI Cable', 1), ('LED Bulb', 1)]</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>600018</v>
+      </c>
+      <c r="B113" s="5" t="n">
+        <v>45066.57002431713</v>
+      </c>
+      <c r="C113" s="5" t="n">
+        <v>45068.11169098379</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[('Aromatherapy Diffuser', 1)]</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>600031</v>
+      </c>
+      <c r="B114" s="5" t="n">
+        <v>45066.57002797454</v>
+      </c>
+      <c r="C114" s="5" t="n">
+        <v>45068.1116946412</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>[('Meditation Cushion', 1)]</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>600079</v>
+      </c>
+      <c r="B115" s="5" t="n">
+        <v>45066.57025709491</v>
+      </c>
+      <c r="C115" s="5" t="n">
+        <v>45068.11192376157</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 1), ('AAA Batteries', 1), ('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Königsallee 18, Dortmund, Renania Settentrionale-Vestfalia, 44137, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>600120</v>
+      </c>
+      <c r="B116" s="5" t="n">
+        <v>45066.57049611111</v>
+      </c>
+      <c r="C116" s="5" t="n">
+        <v>45068.11216277778</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>600126</v>
+      </c>
+      <c r="B117" s="5" t="n">
+        <v>45066.57049701389</v>
+      </c>
+      <c r="C117" s="5" t="n">
+        <v>45068.11216368055</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>[('Toolbox', 1)]</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Calle Alcalá 25, Madrid, Madrid, 28014, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>600129</v>
+      </c>
+      <c r="B118" s="5" t="n">
+        <v>45066.57049777778</v>
+      </c>
+      <c r="C118" s="5" t="n">
+        <v>45068.11216444444</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[('Bath Towels', 1), ('Essential Oil Set', 1)]</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Rue du Lac 8, Losanna, Vaud, 1005, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>600032</v>
+      </c>
+      <c r="B119" s="5" t="n">
+        <v>45066.57002832176</v>
+      </c>
+      <c r="C119" s="5" t="n">
+        <v>45068.1533616551</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[('Mascara', 2), ('Facial Cleanser', 1)]</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Via dei Fori Imperiali 1, Roma, RM, 00184, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>600117</v>
+      </c>
+      <c r="B120" s="5" t="n">
+        <v>45066.5704953588</v>
+      </c>
+      <c r="C120" s="5" t="n">
+        <v>45068.15382869213</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>[('Wireless Mouse', 1)]</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>600151</v>
+      </c>
+      <c r="B121" s="5" t="n">
+        <v>45066.57063028308</v>
+      </c>
+      <c r="C121" s="5" t="n">
+        <v>45068.15396361641</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[('Soccer Ball', 1), ('Resistance Bands', 1)]</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2 Quai de la Megisserie, Tolosa, Occitania, 31000, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>600166</v>
+      </c>
+      <c r="B122" s="5" t="n">
+        <v>45066.57063366446</v>
+      </c>
+      <c r="C122" s="5" t="n">
+        <v>45068.15396699779</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[('Mixing Bowl Set', 1)]</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>600191</v>
+      </c>
+      <c r="B123" s="5" t="n">
+        <v>45066.57063971632</v>
+      </c>
+      <c r="C123" s="5" t="n">
+        <v>45068.15397304965</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>[('Level', 1)]</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>600197</v>
+      </c>
+      <c r="B124" s="5" t="n">
+        <v>45066.57064165257</v>
+      </c>
+      <c r="C124" s="5" t="n">
+        <v>45068.1539749859</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1), ('Wireless Headphones', 2)]</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>600033</v>
+      </c>
+      <c r="B125" s="5" t="n">
+        <v>45066.57002849537</v>
+      </c>
+      <c r="C125" s="5" t="n">
+        <v>45068.19502849537</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 1)]</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>600058</v>
+      </c>
+      <c r="B126" s="5" t="n">
+        <v>45066.57025181713</v>
+      </c>
+      <c r="C126" s="5" t="n">
+        <v>45068.19525181713</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>600075</v>
+      </c>
+      <c r="B127" s="5" t="n">
+        <v>45066.57025625</v>
+      </c>
+      <c r="C127" s="5" t="n">
+        <v>45068.19525625</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 1)]</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>600104</v>
+      </c>
+      <c r="B128" s="5" t="n">
+        <v>45066.57049221065</v>
+      </c>
+      <c r="C128" s="5" t="n">
+        <v>45068.19549221065</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>[('Pillow', 1), ('Facial Cleanser', 1)]</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>600110</v>
+      </c>
+      <c r="B129" s="5" t="n">
+        <v>45066.57049355324</v>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v>45068.19549355324</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 1)]</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Corso Magenta 30, Milano, MI, 20123, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>600113</v>
+      </c>
+      <c r="B130" s="5" t="n">
+        <v>45066.57049439815</v>
+      </c>
+      <c r="C130" s="5" t="n">
+        <v>45068.19549439815</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 2), ('Mascara', 1), ('Lipstick', 1)]</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Via XX Settembre 15, Torino, TO, 10121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>600118</v>
+      </c>
+      <c r="B131" s="5" t="n">
+        <v>45066.57049572917</v>
+      </c>
+      <c r="C131" s="5" t="n">
+        <v>45068.19549572917</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[('Screwdriver Set', 1), ('Power Drill', 1), ('Hammer', 1)]</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>600190</v>
+      </c>
+      <c r="B132" s="5" t="n">
+        <v>45066.57063961139</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <v>45068.19563961139</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>[('Vacuum Cleaner', 1), ('Mixing Bowl Set', 1), ('Paint Roller Kit', 1)]</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>600059</v>
+      </c>
+      <c r="B133" s="5" t="n">
+        <v>45066.57025190972</v>
+      </c>
+      <c r="C133" s="5" t="n">
+        <v>45068.23691857639</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 1)]</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Travessa do Comércio 5, Coimbra, Coimbra, 3000-004, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>600092</v>
+      </c>
+      <c r="B134" s="5" t="n">
+        <v>45066.57026116898</v>
+      </c>
+      <c r="C134" s="5" t="n">
+        <v>45068.23692783565</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>[('Mascara', 1)]</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>600095</v>
+      </c>
+      <c r="B135" s="5" t="n">
+        <v>45066.57026210648</v>
+      </c>
+      <c r="C135" s="5" t="n">
+        <v>45068.23692877315</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 2), ('Eyeshadow Palette', 1), ('Moisturizing Cream', 1)]</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>600099</v>
+      </c>
+      <c r="B136" s="5" t="n">
+        <v>45066.57026364583</v>
+      </c>
+      <c r="C136" s="5" t="n">
+        <v>45068.2369303125</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[('Coffee Maker', 1), ('Eyeshadow Palette', 1)]</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>600108</v>
+      </c>
+      <c r="B137" s="5" t="n">
+        <v>45066.57049291667</v>
+      </c>
+      <c r="C137" s="5" t="n">
+        <v>45068.23715958333</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 1)]</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>600153</v>
+      </c>
+      <c r="B138" s="5" t="n">
+        <v>45066.57063077003</v>
+      </c>
+      <c r="C138" s="5" t="n">
+        <v>45068.2372974367</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 1), ('Moisturizing Cream', 1), ('Eyeshadow Palette', 1)]</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>600193</v>
+      </c>
+      <c r="B139" s="5" t="n">
+        <v>45066.5706404581</v>
+      </c>
+      <c r="C139" s="5" t="n">
+        <v>45068.23730712477</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>[('Measuring Tape', 2), ('Screwdriver Set', 1)]</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>600012</v>
+      </c>
+      <c r="B140" s="5" t="n">
+        <v>45066.57002322916</v>
+      </c>
+      <c r="C140" s="5" t="n">
+        <v>45068.2783565625</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 2), ('Coffee Maker', 1)]</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>600021</v>
+      </c>
+      <c r="B141" s="5" t="n">
+        <v>45066.57002478009</v>
+      </c>
+      <c r="C141" s="5" t="n">
+        <v>45068.27835811343</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>[('Wireless Mouse', 1)]</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Musterweg 20, Basilea, Basilea Città, 4001, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>600026</v>
+      </c>
+      <c r="B142" s="5" t="n">
+        <v>45066.57002630787</v>
+      </c>
+      <c r="C142" s="5" t="n">
+        <v>45068.2783596412</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 1), ('Coffee Mug', 3)]</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>600068</v>
+      </c>
+      <c r="B143" s="5" t="n">
+        <v>45066.57025516203</v>
+      </c>
+      <c r="C143" s="5" t="n">
+        <v>45068.27858850695</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 2)]</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Via XX Settembre 15, Torino, TO, 10121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>600124</v>
+      </c>
+      <c r="B144" s="5" t="n">
+        <v>45066.57049668981</v>
+      </c>
+      <c r="C144" s="5" t="n">
+        <v>45068.27883002315</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 2)]</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>600131</v>
+      </c>
+      <c r="B145" s="5" t="n">
+        <v>45066.57049834491</v>
+      </c>
+      <c r="C145" s="5" t="n">
+        <v>45068.27883167824</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>600132</v>
+      </c>
+      <c r="B146" s="5" t="n">
+        <v>45066.57049848379</v>
+      </c>
+      <c r="C146" s="5" t="n">
+        <v>45068.27883181713</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>[('Hammer', 1)]</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>600149</v>
+      </c>
+      <c r="B147" s="5" t="n">
+        <v>45066.57050355324</v>
+      </c>
+      <c r="C147" s="5" t="n">
+        <v>45068.27883688657</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[('Bath Towels', 1), ('Eyeshadow Palette', 1)]</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>600177</v>
+      </c>
+      <c r="B148" s="5" t="n">
+        <v>45066.57063592258</v>
+      </c>
+      <c r="C148" s="5" t="n">
+        <v>45068.27896925592</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 1), ('Soccer Ball', 1), ('Bluetooth Speaker', 1)]</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>600105</v>
+      </c>
+      <c r="B149" s="5" t="n">
+        <v>45066.57049236111</v>
+      </c>
+      <c r="C149" s="5" t="n">
+        <v>45068.32049236111</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>[('Mascara', 1)]</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>25 Avenue des Champs-Élysées, Parigi, Île-de-France, 75008, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>600152</v>
+      </c>
+      <c r="B150" s="5" t="n">
+        <v>45066.57063040411</v>
+      </c>
+      <c r="C150" s="5" t="n">
+        <v>45068.32063040411</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 1)]</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>600179</v>
+      </c>
+      <c r="B151" s="5" t="n">
+        <v>45066.57063654183</v>
+      </c>
+      <c r="C151" s="5" t="n">
+        <v>45068.32063654183</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 1)]</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>600008</v>
+      </c>
+      <c r="B152" s="5" t="n">
+        <v>45066.57002224537</v>
+      </c>
+      <c r="C152" s="5" t="n">
+        <v>45068.36168891204</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 1), ('Moisturizing Cream', 1)]</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Avenida da Boavista 25, Porto, Porto, 4100-135, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>600038</v>
+      </c>
+      <c r="B153" s="5" t="n">
+        <v>45066.5700296412</v>
+      </c>
+      <c r="C153" s="5" t="n">
+        <v>45068.36169631944</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>[('Hammer', 1)]</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>600045</v>
+      </c>
+      <c r="B154" s="5" t="n">
+        <v>45066.57003206018</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>45068.36169872685</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>[('Mascara', 1), ('Eyeshadow Palette', 4), ('Bath Towels', 1), ('Lipstick', 1), ('Facial Cleanser', 1)]</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>600060</v>
+      </c>
+      <c r="B155" s="5" t="n">
+        <v>45066.57025246528</v>
+      </c>
+      <c r="C155" s="5" t="n">
+        <v>45068.36191913194</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>[('Soccer Ball', 1), ('Yoga Mat', 1), ('Resistance Bands', 2)]</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Bergstrasse 18, Losone, Ticino, 6616, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>600138</v>
+      </c>
+      <c r="B156" s="5" t="n">
+        <v>45066.57050052084</v>
+      </c>
+      <c r="C156" s="5" t="n">
+        <v>45068.3621671875</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>[('Facial Cleanser', 2)]</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Calle Alcalá 25, Madrid, Madrid, 28014, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>600150</v>
+      </c>
+      <c r="B157" s="5" t="n">
+        <v>45066.57050366898</v>
+      </c>
+      <c r="C157" s="5" t="n">
+        <v>45068.36217033565</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 1)]</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>600161</v>
+      </c>
+      <c r="B158" s="5" t="n">
+        <v>45066.57063246017</v>
+      </c>
+      <c r="C158" s="5" t="n">
+        <v>45068.36229912684</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>[('Wall Clock', 1), ('Aromatherapy Diffuser', 1)]</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>600167</v>
+      </c>
+      <c r="B159" s="5" t="n">
+        <v>45066.57063375244</v>
+      </c>
+      <c r="C159" s="5" t="n">
+        <v>45068.36230041911</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 1)]</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Via Garibaldi 20, Bologna, BO, 40122, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>600181</v>
+      </c>
+      <c r="B160" s="5" t="n">
+        <v>45066.57063679611</v>
+      </c>
+      <c r="C160" s="5" t="n">
+        <v>45068.36230346277</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[('AAA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>600195</v>
+      </c>
+      <c r="B161" s="5" t="n">
+        <v>45066.57064079835</v>
+      </c>
+      <c r="C161" s="5" t="n">
+        <v>45068.36230746501</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[('Level', 1), ('Screw Assortment Kit', 1)]</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Musterstraße 15, Monaco di Baviera, Baviera, 80331, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>600014</v>
+      </c>
+      <c r="B162" s="5" t="n">
+        <v>45066.57002347222</v>
+      </c>
+      <c r="C162" s="5" t="n">
+        <v>45068.40335680555</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 1)]</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>600030</v>
+      </c>
+      <c r="B163" s="5" t="n">
+        <v>45066.57002784722</v>
+      </c>
+      <c r="C163" s="5" t="n">
+        <v>45068.40336118056</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[('Mixing Bowl Set', 1), ('Coffee Mug', 1), ('AAA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>600054</v>
+      </c>
+      <c r="B164" s="5" t="n">
+        <v>45066.57025077546</v>
+      </c>
+      <c r="C164" s="5" t="n">
+        <v>45068.4035841088</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 1)]</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Via dei Fori Imperiali 1, Roma, RM, 00184, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>600076</v>
+      </c>
+      <c r="B165" s="5" t="n">
+        <v>45066.57025650463</v>
+      </c>
+      <c r="C165" s="5" t="n">
+        <v>45068.40358983797</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 1), ('USB Flash Drive', 1)]</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Largo Vittorio Veneto 3, Napoli, NA, 80132, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>600090</v>
+      </c>
+      <c r="B166" s="5" t="n">
+        <v>45066.57026092592</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <v>45068.40359425926</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>[('Soccer Ball', 1), ('Tennis Racket', 1)]</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>600103</v>
+      </c>
+      <c r="B167" s="5" t="n">
+        <v>45066.57049192129</v>
+      </c>
+      <c r="C167" s="5" t="n">
+        <v>45068.40382525463</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 2)]</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Calle Gran Vía 10, Madrid, Madrid, 28013, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>600121</v>
+      </c>
+      <c r="B168" s="5" t="n">
+        <v>45066.57049620371</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>45068.40382953703</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[('Facial Cleanser', 1)]</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>600155</v>
+      </c>
+      <c r="B169" s="5" t="n">
+        <v>45066.57063102148</v>
+      </c>
+      <c r="C169" s="5" t="n">
+        <v>45068.40396435482</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 1)]</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>600184</v>
+      </c>
+      <c r="B170" s="5" t="n">
+        <v>45066.5706382125</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>45068.40397154583</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 4), ('Lipstick', 1)]</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Lange Straße 12, Düsseldorf, Renania Settentrionale-Vestfalia, 40213, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>600199</v>
+      </c>
+      <c r="B171" s="5" t="n">
+        <v>45066.57064186296</v>
+      </c>
+      <c r="C171" s="5" t="n">
+        <v>45068.4039751963</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 1)]</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>600020</v>
+      </c>
+      <c r="B172" s="5" t="n">
+        <v>45066.57002467592</v>
+      </c>
+      <c r="C172" s="5" t="n">
+        <v>45068.44502467592</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>[('Cookware Set', 1)]</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>600042</v>
+      </c>
+      <c r="B173" s="5" t="n">
+        <v>45066.57003049769</v>
+      </c>
+      <c r="C173" s="5" t="n">
+        <v>45068.44503049769</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>[('Food Storage Containers', 1)]</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>600046</v>
+      </c>
+      <c r="B174" s="5" t="n">
+        <v>45066.57003276621</v>
+      </c>
+      <c r="C174" s="5" t="n">
+        <v>45068.44503276621</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 1), ('Aromatherapy Diffuser', 1), ('Food Storage Containers', 1), ('Essential Oil Set', 2), ('Vacuum Cleaner', 1)]</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>600053</v>
+      </c>
+      <c r="B175" s="5" t="n">
+        <v>45066.57025065972</v>
+      </c>
+      <c r="C175" s="5" t="n">
+        <v>45068.44525065972</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 1), ('Vacuum Cleaner', 1)]</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>600061</v>
+      </c>
+      <c r="B176" s="5" t="n">
+        <v>45066.5702525926</v>
+      </c>
+      <c r="C176" s="5" t="n">
+        <v>45068.4452525926</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>600087</v>
+      </c>
+      <c r="B177" s="5" t="n">
+        <v>45066.57026045139</v>
+      </c>
+      <c r="C177" s="5" t="n">
+        <v>45068.44526045139</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 2), ('LED Bulb', 2), ('Aromatherapy Diffuser', 2), ('AAA Batteries', 1), ('Wall Clock', 1), ('Eyeshadow Palette', 1)]</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>600096</v>
+      </c>
+      <c r="B178" s="5" t="n">
+        <v>45066.57026288194</v>
+      </c>
+      <c r="C178" s="5" t="n">
+        <v>45068.44526288194</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>[('Facial Cleanser', 1), ('Lipstick', 1), ('Eyeshadow Palette', 1), ('Pillow', 1), ('Coffee Mug', 1), ('Bed Sheets', 1)]</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>600116</v>
+      </c>
+      <c r="B179" s="5" t="n">
+        <v>45066.57049525463</v>
+      </c>
+      <c r="C179" s="5" t="n">
+        <v>45068.44549525463</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>[('Steam Iron', 1), ('Vacuum Cleaner', 1), ('Essential Oil Set', 1), ('Lipstick', 1)]</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>600134</v>
+      </c>
+      <c r="B180" s="5" t="n">
+        <v>45066.57049921296</v>
+      </c>
+      <c r="C180" s="5" t="n">
+        <v>45068.44549921296</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[('Measuring Tape', 1)]</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>600148</v>
+      </c>
+      <c r="B181" s="5" t="n">
+        <v>45066.57050331018</v>
+      </c>
+      <c r="C181" s="5" t="n">
+        <v>45068.44550331018</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 1), ('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>600158</v>
+      </c>
+      <c r="B182" s="5" t="n">
+        <v>45066.57063148793</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>45068.44563148793</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>[('Aromatherapy Diffuser', 1)]</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Musterstraße 15, Monaco di Baviera, Baviera, 80331, Germania</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>600163</v>
+      </c>
+      <c r="B183" s="5" t="n">
+        <v>45066.57063281632</v>
+      </c>
+      <c r="C183" s="5" t="n">
+        <v>45068.44563281632</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[('Paint Brush Set', 1)]</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>600039</v>
+      </c>
+      <c r="B184" s="5" t="n">
+        <v>45066.57002989583</v>
+      </c>
+      <c r="C184" s="5" t="n">
+        <v>45068.4866965625</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 1), ('Screwdriver Set', 1)]</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>600109</v>
+      </c>
+      <c r="B185" s="5" t="n">
+        <v>45066.5704934375</v>
+      </c>
+      <c r="C185" s="5" t="n">
+        <v>45068.48716010417</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 3), ('Food Storage Containers', 1)]</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>600122</v>
+      </c>
+      <c r="B186" s="5" t="n">
+        <v>45066.57049631944</v>
+      </c>
+      <c r="C186" s="5" t="n">
+        <v>45068.48716298611</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>600143</v>
+      </c>
+      <c r="B187" s="5" t="n">
+        <v>45066.57050210648</v>
+      </c>
+      <c r="C187" s="5" t="n">
+        <v>45068.48716877315</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>[('Measuring Tape', 2), ('Hammer', 1), ('Screw Assortment Kit', 2)]</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Largo Vittorio Veneto 3, Napoli, NA, 80132, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>600144</v>
+      </c>
+      <c r="B188" s="5" t="n">
+        <v>45066.57050221065</v>
+      </c>
+      <c r="C188" s="5" t="n">
+        <v>45068.48716887731</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>[('AAA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>600170</v>
+      </c>
+      <c r="B189" s="5" t="n">
+        <v>45066.57063426625</v>
+      </c>
+      <c r="C189" s="5" t="n">
+        <v>45068.48730093292</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>[('Sanding Block', 1), ('Toolbox', 1)]</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Largo Santa Lucia 3, Bari, BA, 70121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>600185</v>
+      </c>
+      <c r="B190" s="5" t="n">
+        <v>45066.57063831828</v>
+      </c>
+      <c r="C190" s="5" t="n">
+        <v>45068.48730498496</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>[('AAA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Avenida del Mar 18, Malaga, Andalusia, 29016, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>600186</v>
+      </c>
+      <c r="B191" s="5" t="n">
+        <v>45066.57063852878</v>
+      </c>
+      <c r="C191" s="5" t="n">
+        <v>45068.48730519545</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 1), ('Essential Oil Set', 1)]</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>12 Rue de la République, Parigi, Île-de-France, 75001, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>600187</v>
+      </c>
+      <c r="B192" s="5" t="n">
+        <v>45066.57063879141</v>
+      </c>
+      <c r="C192" s="5" t="n">
+        <v>45068.48730545808</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>[('Knife Set', 1), ('Toolbox', 1)]</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>8 Place de la Bastille, Parigi, Île-de-France, 75011, Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>600146</v>
+      </c>
+      <c r="B193" s="5" t="n">
+        <v>45066.57050255787</v>
+      </c>
+      <c r="C193" s="5" t="n">
+        <v>45068.5288358912</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 1)]</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>600037</v>
+      </c>
+      <c r="B194" s="5" t="n">
+        <v>45066.57002953703</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>45068.57002954861</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>[('Level', 1)]</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>600063</v>
+      </c>
+      <c r="B195" s="5" t="n">
+        <v>45066.57025358796</v>
+      </c>
+      <c r="C195" s="5" t="n">
+        <v>45068.57025358796</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[('Paint Brush Set', 1), ('Sanding Block', 1), ('Vacuum Cleaner', 1), ('Mascara', 1)]</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>600064</v>
+      </c>
+      <c r="B196" s="5" t="n">
+        <v>45066.57025385417</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <v>45068.57025385417</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 2)]</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>600094</v>
+      </c>
+      <c r="B197" s="5" t="n">
+        <v>45066.57026164352</v>
+      </c>
+      <c r="C197" s="5" t="n">
+        <v>45068.57026164352</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[('Blender', 1), ('LED Bulb', 1), ('Screwdriver Set', 1)]</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>600102</v>
+      </c>
+      <c r="B198" s="5" t="n">
+        <v>45066.57049171296</v>
+      </c>
+      <c r="C198" s="5" t="n">
+        <v>45068.57049171296</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>[('Meditation Cushion', 1), ('Aromatherapy Diffuser', 1), ('Lipstick', 1), ('Food Storage Containers', 1)]</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>600141</v>
+      </c>
+      <c r="B199" s="5" t="n">
+        <v>45066.57050137731</v>
+      </c>
+      <c r="C199" s="5" t="n">
+        <v>45068.57050137731</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>[('Level', 1), ('Toolbox', 1), ('LED Bulb', 1)]</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>600162</v>
+      </c>
+      <c r="B200" s="5" t="n">
+        <v>45066.57063267665</v>
+      </c>
+      <c r="C200" s="5" t="n">
+        <v>45068.57063267665</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>[('Bed Sheets', 1), ('Mascara', 1)]</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>600173</v>
+      </c>
+      <c r="B201" s="5" t="n">
+        <v>45066.57063485026</v>
+      </c>
+      <c r="C201" s="5" t="n">
+        <v>45068.57063485026</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 1)]</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Bahnhofstraße 30, Stoccarda, Baden-Württemberg, 70173, Germania</t>
         </is>
       </c>
     </row>

--- a/warehouse_manager/Database/Orders.xlsx
+++ b/warehouse_manager/Database/Orders.xlsx
@@ -6,9 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Orders" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Arrivals" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Departures" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Arrivals" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Departures" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -19,8 +18,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -89,7 +88,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -433,2657 +432,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Placed Time</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Deadline</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Items</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>600017</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>45066.96778833334</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>45067.96778833334</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>600020</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>45066.96778884259</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>45067.96778884259</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Pillow', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hauptstraße 10, Berlino, Berlino, 10115, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>600039</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>45066.96779336806</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>45067.96779336806</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>600086</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>45066.96780347222</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>45067.96780347222</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>600014</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>45066.96778761574</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>45068.00945428241</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>600048</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>45066.96779524306</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>45068.00946190972</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>600067</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>45066.96779962963</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>45068.00946629629</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>600078</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>45066.96780210648</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>45068.00946877315</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 2}, {'Name': 'Power Drill', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Via Piazza 30, Lugano, Ticino, 6900, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>600089</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>45066.96780420139</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>45068.00947086806</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Yoga Mat', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Via Nazionale 8, Roma, RM, 00184, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>600023</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>45066.96778957176</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>45068.05112290509</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Platz der Freiheit 12, San Gallo, San Gallo, 9000, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>600027</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>45066.96779064814</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>45068.05112398148</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}, {'Name': 'Yoga Mat', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>600043</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>45066.96779427084</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>45068.05112760417</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>600049</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>45066.96779574074</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>45068.05112907408</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Slow Cooker', 'Quantity': 1}, {'Name': 'Cutting Board', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>600074</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>45066.96780075232</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>45068.05113408565</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Musterweg 20, Basilea, Basilea Città, 4001, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>600021</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>45066.96778894676</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>45068.09278894676</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>600028</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>45066.96779111111</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>45068.09279111111</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Utility Knife', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}, {'Name': 'Level', 'Quantity': 1}, {'Name': 'Power Drill', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>600065</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>45066.96779927083</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>45068.09279927083</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>600080</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>45066.96780230324</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>45068.09280230324</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>600010</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>45066.96778653935</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>45068.13445320602</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Tennis Racket', 'Quantity': 1}, {'Name': 'Basketball', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>600015</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>45066.96778797454</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>45068.1344546412</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>600024</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>45066.96778967592</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>45068.1344563426</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>600050</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>45066.96779623842</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>45068.13446290509</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Sanding Block', 'Quantity': 1}, {'Name': 'Measuring Tape', 'Quantity': 1}, {'Name': 'Toolbox', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Corso Italia 15, Milano, MI, 20121, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>600051</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>45066.96779657408</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>45068.13446324074</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>600058</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>45066.96779775463</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>45068.13446442129</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Avenida de la Constitución 8, Siviglia, Andalusia, 41004, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>600084</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>45066.96780282407</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>45068.13446949074</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Via Garibaldi 20, Bologna, BO, 40122, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>600100</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>45066.96780616898</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>45068.13447283565</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Steam Iron', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>600029</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>45066.96779165509</v>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>45068.17612498843</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Food Storage Containers', 'Quantity': 2}, {'Name': 'Coffee Mug', 'Quantity': 2}]</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>600052</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>45066.96779682871</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>45068.17613016204</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Corso Umberto I 12, Trieste, TS, 34121, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>600073</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="n">
-        <v>45066.96780065972</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>45068.17613399305</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 2}]</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>600007</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>45066.96778481481</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>45068.21778481481</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Hauptstraße 10, Berlino, Berlino, 10115, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>600008</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>45066.96778561343</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>45068.21778561343</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 1}, {'Name': 'Facial Cleanser', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>600055</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>45066.96779728009</v>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>45068.21779728009</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>600059</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="n">
-        <v>45066.96779790509</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>45068.21779790509</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Piazza Unità d'Italia 1, Trieste, TS, 34121, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>600060</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="n">
-        <v>45066.96779826389</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <v>45068.21779826389</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 2}, {'Name': 'Wireless Mouse', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>600090</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="n">
-        <v>45066.9678046875</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>45068.2178046875</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 3}, {'Name': 'Coffee Maker', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Calle Gran Vía 10, Madrid, Madrid, 28013, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>600054</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="n">
-        <v>45066.9677971875</v>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>45068.25946385416</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Resistance Bands', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Alte Landstrasse 6, Winterthur, Zurigo, 8400, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>600096</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>45066.96780563657</v>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>45068.25947230324</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Coffee Maker', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>600098</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>45066.96780590278</v>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>45068.25947256944</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Travessa da Ribeira 6, Funchal, Madeira, 9000-075, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>600016</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="n">
-        <v>45066.967788125</v>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>45068.30112145833</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Calle Alcalá 25, Madrid, Madrid, 28014, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>600069</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="n">
-        <v>45066.9677999074</v>
-      </c>
-      <c r="D41" s="4" t="n">
-        <v>45068.30113324074</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Basketball', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2 Quai de la Megisserie, Tolosa, Occitania, 31000, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>600083</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="n">
-        <v>45066.96780269676</v>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>45068.3011360301</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>600092</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="n">
-        <v>45066.9678050463</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>45068.30113837963</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 2}]</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Rua do Carmo 10, Lisbona, Lisboa, 1200-092, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>600009</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="n">
-        <v>45066.96778631944</v>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>45068.34278631944</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'Laptop Backpack', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>18 Rue du Temple, Lione, Alvernia-Rodano-Alpi, 69002, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>600045</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="n">
-        <v>45066.96779462963</v>
-      </c>
-      <c r="D45" s="4" t="n">
-        <v>45068.34279462963</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 2}]</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2 Quai de la Megisserie, Tolosa, Occitania, 31000, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>600047</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="n">
-        <v>45066.96779511574</v>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>45068.34279511574</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Avenida Diagonal 15, Barcellona, Catalogna, 08019, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>600085</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="n">
-        <v>45066.96780335649</v>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>45068.38447002315</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}, {'Name': 'HDMI Cable', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Piazza del Duomo 5, Firenze, FI, 50122, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>600030</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="n">
-        <v>45066.96779174769</v>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>45068.42612508102</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Wall Clock', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>16 Rue du Faubourg Saint-Honoré, Parigi, Île-de-France, 75008, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>600056</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="n">
-        <v>45066.96779753472</v>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>45068.42613086806</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Blender', 'Quantity': 1}, {'Name': 'LED Bulb', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>600006</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="n">
-        <v>45066.96778471065</v>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>45068.46778471065</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>600022</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="n">
-        <v>45066.96778945602</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>45068.46778945602</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}, {'Name': 'Bluetooth Speaker', 'Quantity': 1}, {'Name': 'AAA Batteries', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Via Mazzini 5, Verona, VR, 37121, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>600033</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="n">
-        <v>45066.96779228009</v>
-      </c>
-      <c r="D52" s="4" t="n">
-        <v>45068.46779228009</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Schlossallee 20, Francoforte sul Meno, Assia, 60313, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>600035</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="n">
-        <v>45066.9677925</v>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>45068.4677925</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>12 Rue de la République, Parigi, Île-de-France, 75001, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>600057</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="n">
-        <v>45066.96779763889</v>
-      </c>
-      <c r="D54" s="4" t="n">
-        <v>45068.46779763889</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Musterweg 20, Basilea, Basilea Città, 4001, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>600063</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="n">
-        <v>45066.96779876157</v>
-      </c>
-      <c r="D55" s="4" t="n">
-        <v>45068.46779876157</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Piazza della Signoria 10, Firenze, FI, 50122, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>600002</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="n">
-        <v>45066.96778412037</v>
-      </c>
-      <c r="D56" s="4" t="n">
-        <v>45068.50945078704</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Musterstraße 15, Monaco di Baviera, Baviera, 80331, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>600012</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="n">
-        <v>45066.96778739584</v>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>45068.5094540625</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>[{'Name': 'AAA Batteries', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Largo Vittorio Veneto 3, Napoli, NA, 80132, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>600034</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="n">
-        <v>45066.96779239583</v>
-      </c>
-      <c r="D58" s="4" t="n">
-        <v>45068.5094590625</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Moisturizing Cream', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5 Rue de Rivoli, Parigi, Île-de-France, 75004, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>600044</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="n">
-        <v>45066.96779438658</v>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>45068.50946105324</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Utility Knife', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>600066</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="n">
-        <v>45066.967799375</v>
-      </c>
-      <c r="D60" s="4" t="n">
-        <v>45068.50946604167</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Measuring Tape', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Musterweg 20, Basilea, Basilea Città, 4001, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>600081</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C61" s="4" t="n">
-        <v>45066.96780246527</v>
-      </c>
-      <c r="D61" s="4" t="n">
-        <v>45068.50946913195</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Vacuum Cleaner', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>18 Rue du Temple, Lione, Alvernia-Rodano-Alpi, 69002, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>600088</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="n">
-        <v>45066.96780383102</v>
-      </c>
-      <c r="D62" s="4" t="n">
-        <v>45068.50947049769</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Essential Oil Set', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Avenida dos Aliados 30, Porto, Porto, 4000-065, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>600091</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C63" s="4" t="n">
-        <v>45066.96780483796</v>
-      </c>
-      <c r="D63" s="4" t="n">
-        <v>45068.50947150463</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>600001</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C64" s="4" t="n">
-        <v>45066.96778376157</v>
-      </c>
-      <c r="D64" s="4" t="n">
-        <v>45068.55111709491</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Marktplatz 6, Hannover, Bassa Sassonia, 30159, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>600004</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C65" s="4" t="n">
-        <v>45066.96778436343</v>
-      </c>
-      <c r="D65" s="4" t="n">
-        <v>45068.55111769676</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Coffee Maker', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Alte Landstrasse 6, Winterthur, Zurigo, 8400, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>600042</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C66" s="4" t="n">
-        <v>45066.96779390046</v>
-      </c>
-      <c r="D66" s="4" t="n">
-        <v>45068.5511272338</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Hauptstrasse 10, Zurigo, Zurigo, 8001, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>600061</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C67" s="4" t="n">
-        <v>45066.9677984838</v>
-      </c>
-      <c r="D67" s="4" t="n">
-        <v>45068.55113181713</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Hauptstraße 10, Berlino, Berlino, 10115, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>600068</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C68" s="4" t="n">
-        <v>45066.96779974537</v>
-      </c>
-      <c r="D68" s="4" t="n">
-        <v>45068.5511330787</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Soccer Ball', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Avenida da Liberdade 15, Porto, Porto, 4000-154, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>600095</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C69" s="4" t="n">
-        <v>45066.96780554398</v>
-      </c>
-      <c r="D69" s="4" t="n">
-        <v>45068.59280554398</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>600013</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C70" s="4" t="n">
-        <v>45066.96778751157</v>
-      </c>
-      <c r="D70" s="4" t="n">
-        <v>45068.63445417824</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Piazza San Marco 12, Venezia, VE, 30124, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>600019</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C71" s="4" t="n">
-        <v>45066.9677887037</v>
-      </c>
-      <c r="D71" s="4" t="n">
-        <v>45068.63445537037</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>10 Avenue de la Grande Armée, Parigi, Île-de-France, 75017, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>600046</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C72" s="4" t="n">
-        <v>45066.967795</v>
-      </c>
-      <c r="D72" s="4" t="n">
-        <v>45068.63446166667</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Pillow', 'Quantity': 1}, {'Name': 'Coffee Mug', 'Quantity': 1}, {'Name': 'Mixing Bowl Set', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Calle del Carmen 6, Granada, Andalusia, 18009, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>600097</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C73" s="4" t="n">
-        <v>45066.96780574074</v>
-      </c>
-      <c r="D73" s="4" t="n">
-        <v>45068.63447240741</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Mascara', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Calle Serrano 20, Madrid, Madrid, 28001, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>600036</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C74" s="4" t="n">
-        <v>45066.96779299768</v>
-      </c>
-      <c r="D74" s="4" t="n">
-        <v>45068.67612633102</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bed Sheets', 'Quantity': 1}, {'Name': 'Vacuum Cleaner', 'Quantity': 1}, {'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>16 Rue du Faubourg Saint-Honoré, Parigi, Île-de-France, 75008, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>600037</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C75" s="4" t="n">
-        <v>45066.96779309028</v>
-      </c>
-      <c r="D75" s="4" t="n">
-        <v>45068.67612642361</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>7 Place de l'Opéra, Marsiglia, Provenza-Alpi-Costa Azzurra, 13001, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>600075</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C76" s="4" t="n">
-        <v>45066.96780100695</v>
-      </c>
-      <c r="D76" s="4" t="n">
-        <v>45068.71780100695</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>[{'Name': 'HDMI Cable', 'Quantity': 1}, {'Name': 'USB Flash Drive', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Piazza del Duomo 5, Firenze, FI, 50122, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>600076</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C77" s="4" t="n">
-        <v>45066.96780111111</v>
-      </c>
-      <c r="D77" s="4" t="n">
-        <v>45068.71780111111</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Hammer', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>600062</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C78" s="4" t="n">
-        <v>45066.96779862268</v>
-      </c>
-      <c r="D78" s="4" t="n">
-        <v>45068.75946528935</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>600071</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C79" s="4" t="n">
-        <v>45066.96780012731</v>
-      </c>
-      <c r="D79" s="4" t="n">
-        <v>45068.75946679398</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Food Storage Containers', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Rathausplatz 5, Amburgo, Amburgo, 20095, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>600072</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C80" s="4" t="n">
-        <v>45066.96780038194</v>
-      </c>
-      <c r="D80" s="4" t="n">
-        <v>45068.75946704861</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Essential Oil Set', 'Quantity': 2}]</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Plaza Mayor 5, Salamanca, Castiglia e León, 37002, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>600093</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C81" s="4" t="n">
-        <v>45066.96780528935</v>
-      </c>
-      <c r="D81" s="4" t="n">
-        <v>45068.75947195602</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Essential Oil Set', 'Quantity': 2}]</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Rua Augusta 12, Lisbona, Lisboa, 1100-053, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>600099</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C82" s="4" t="n">
-        <v>45066.96780601852</v>
-      </c>
-      <c r="D82" s="4" t="n">
-        <v>45068.75947268518</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[{'Name': 'LED Bulb', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Plaza de España 12, Valencia, Comunità Valenciana, 46013, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>600003</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C83" s="4" t="n">
-        <v>45066.96778422454</v>
-      </c>
-      <c r="D83" s="4" t="n">
-        <v>45068.80111755787</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Pillow', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>600018</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C84" s="4" t="n">
-        <v>45066.96778859954</v>
-      </c>
-      <c r="D84" s="4" t="n">
-        <v>45068.80112193287</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 2}]</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Rua das Flores 20, Braga, Braga, 4700-415, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>600031</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C85" s="4" t="n">
-        <v>45066.96779203704</v>
-      </c>
-      <c r="D85" s="4" t="n">
-        <v>45068.80112537037</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Yoga Mat', 'Quantity': 1}, {'Name': 'Basketball', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Grossmattstrasse 25, Lucerna, Lucerna, 6004, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>600011</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C86" s="4" t="n">
-        <v>45066.96778716435</v>
-      </c>
-      <c r="D86" s="4" t="n">
-        <v>45068.84278716435</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>[{'Name': 'AA Batteries', 'Quantity': 3}, {'Name': 'AAA Batteries', 'Quantity': 2}]</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>600094</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C87" s="4" t="n">
-        <v>45066.96780539352</v>
-      </c>
-      <c r="D87" s="4" t="n">
-        <v>45068.84280539352</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Calle Gran Vía 10, Madrid, Madrid, 28013, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>600005</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C88" s="4" t="n">
-        <v>45066.96778458334</v>
-      </c>
-      <c r="D88" s="4" t="n">
-        <v>45068.88445125</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}, {'Name': 'Mascara', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Viale dei Colli 20, Bergamo, BG, 24129, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>600026</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C89" s="4" t="n">
-        <v>45066.96779028935</v>
-      </c>
-      <c r="D89" s="4" t="n">
-        <v>45068.88445695602</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Bath Towels', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>25 Avenue des Champs-Élysées, Parigi, Île-de-France, 75008, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>600040</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C90" s="4" t="n">
-        <v>45066.96779363426</v>
-      </c>
-      <c r="D90" s="4" t="n">
-        <v>45068.88446030093</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'AA Batteries', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Via Dante Alighieri 30, Palermo, PA, 90133, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>600053</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C91" s="4" t="n">
-        <v>45066.96779704861</v>
-      </c>
-      <c r="D91" s="4" t="n">
-        <v>45068.88446371528</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Level', 'Quantity': 1}, {'Name': 'Screw Assortment Kit', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Paseo de Gracia 30, Barcellona, Catalogna, 08007, Spagna</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>600077</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C92" s="4" t="n">
-        <v>45066.96780173611</v>
-      </c>
-      <c r="D92" s="4" t="n">
-        <v>45068.88446840278</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}, {'Name': 'Moisturizing Cream', 'Quantity': 1}, {'Name': 'Essential Oil Set', 'Quantity': 1}, {'Name': 'Resistance Bands', 'Quantity': 1}, {'Name': 'Wall Clock', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Hauptstraße 10, Berlino, Berlino, 10115, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>600079</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C93" s="4" t="n">
-        <v>45066.96780219908</v>
-      </c>
-      <c r="D93" s="4" t="n">
-        <v>45068.88446886574</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Yoga Mat', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Via Roma 10, Roma, RM, 00100, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>600038</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C94" s="4" t="n">
-        <v>45066.96779320601</v>
-      </c>
-      <c r="D94" s="4" t="n">
-        <v>45068.92612653935</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Marktgasse 5, Berna, Berna, 3011, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>600064</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C95" s="4" t="n">
-        <v>45066.96779887732</v>
-      </c>
-      <c r="D95" s="4" t="n">
-        <v>45068.92613221065</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Corso Vittorio Emanuele II 25, Genova, GE, 16121, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>600070</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C96" s="4" t="n">
-        <v>45066.96780002315</v>
-      </c>
-      <c r="D96" s="4" t="n">
-        <v>45068.92613335648</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Lipstick', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Rua de Santa Catarina 18, Porto, Porto, 4000-447, Portogallo</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>600082</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C97" s="4" t="n">
-        <v>45066.96780258102</v>
-      </c>
-      <c r="D97" s="4" t="n">
-        <v>45068.92613591435</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Coffee Mug', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Via Giuseppe Verdi 18, Catania, CT, 95131, Italia</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>600087</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C98" s="4" t="n">
-        <v>45066.96780372685</v>
-      </c>
-      <c r="D98" s="4" t="n">
-        <v>45068.92613706018</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Wireless Mouse', 'Quantity': 1}, {'Name': 'Wireless Headphones', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Am Markt 8, Colonia, Renania Settentrionale-Vestfalia, 50667, Germania</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>600025</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C99" s="4" t="n">
-        <v>45066.96779016204</v>
-      </c>
-      <c r="D99" s="4" t="n">
-        <v>45068.96779016204</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}, {'Name': 'Pillow', 'Quantity': 2}, {'Name': 'Lipstick', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Alte Landstrasse 6, Winterthur, Zurigo, 8400, Svizzera</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>600032</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="n">
-        <v>45066.96779215278</v>
-      </c>
-      <c r="D100" s="4" t="n">
-        <v>45068.96779215278</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Power Drill', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>3 Rue de la Paix, Parigi, Île-de-France, 75002, Francia</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>600041</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Placed</t>
-        </is>
-      </c>
-      <c r="C101" s="4" t="n">
-        <v>45066.96779373843</v>
-      </c>
-      <c r="D101" s="4" t="n">
-        <v>45068.96779373843</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1}]</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bahnhofstraße 30, Stoccarda, Baden-Württemberg, 70173, Germania</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +1777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
